--- a/Bariants/fipi-04-29/Задание 9/9.xlsx
+++ b/Bariants/fipi-04-29/Задание 9/9.xlsx
@@ -1,44 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htmlprogrammist/Python/ege/Bariants/fipi-04-29/Задание 9/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7CA031-C258-6E4C-AC51-82A837C1157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -48,7 +54,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,6 +64,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -74,13 +86,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -387,21 +400,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +494,7 @@
         <v>0.95833333333333304</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43191</v>
       </c>
@@ -554,8 +570,14 @@
       <c r="Y2" s="4">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43192</v>
       </c>
@@ -631,8 +653,16 @@
       <c r="Y3" s="4">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="AA3" s="4">
+        <f>MAX(B2:Y2,B62:Y62)</f>
+        <v>29.3</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>AVERAGE(B2:Y62)</f>
+        <v>20.620560109289606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43193</v>
       </c>
@@ -709,7 +739,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43194</v>
       </c>
@@ -785,8 +815,12 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="AA5" s="4">
+        <f>AA3-AB3</f>
+        <v>8.6794398907103947</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43195</v>
       </c>
@@ -862,8 +896,11 @@
       <c r="Y6" s="4">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="AA6" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43196</v>
       </c>
@@ -940,7 +977,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43197</v>
       </c>
@@ -1017,7 +1054,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43198</v>
       </c>
@@ -1094,7 +1131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43199</v>
       </c>
@@ -1171,7 +1208,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43200</v>
       </c>
@@ -1248,7 +1285,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43201</v>
       </c>
@@ -1325,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43202</v>
       </c>
@@ -1402,7 +1439,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43203</v>
       </c>
@@ -1479,7 +1516,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43204</v>
       </c>
@@ -1556,7 +1593,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43205</v>
       </c>
@@ -1633,7 +1670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1710,7 +1747,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1787,7 +1824,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1864,7 +1901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1941,7 +1978,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2018,7 +2055,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2095,7 +2132,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2172,7 +2209,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2249,7 +2286,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2326,7 +2363,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2403,7 +2440,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2480,7 +2517,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2557,7 +2594,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2634,7 +2671,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2711,7 +2748,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2788,7 +2825,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2865,7 +2902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -2942,7 +2979,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -3019,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3096,7 +3133,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3173,7 +3210,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3250,7 +3287,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="38" spans="1:25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3327,7 +3364,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3404,7 +3441,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="40" spans="1:25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3481,7 +3518,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3558,7 +3595,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3635,7 +3672,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3712,7 +3749,7 @@
         <v>21.2</v>
       </c>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3789,7 +3826,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -3866,7 +3903,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -3943,7 +3980,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -4020,7 +4057,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4097,7 +4134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4174,7 +4211,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4251,7 +4288,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="51" spans="1:25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4328,7 +4365,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4405,7 +4442,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4482,7 +4519,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4559,7 +4596,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4636,7 +4673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4713,7 +4750,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4790,7 +4827,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4867,7 +4904,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="59" spans="1:25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4944,7 +4981,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="60" spans="1:25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5021,7 +5058,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5098,7 +5135,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="62" spans="1:25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5175,7 +5212,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="63" spans="1:25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5252,7 +5289,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="64" spans="1:25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5329,7 +5366,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5406,7 +5443,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="66" spans="1:25">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5483,7 +5520,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="67" spans="1:25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5560,7 +5597,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5637,7 +5674,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="69" spans="1:25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5714,7 +5751,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="70" spans="1:25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5791,7 +5828,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="71" spans="1:25">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5868,7 +5905,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="72" spans="1:25">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5945,7 +5982,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="73" spans="1:25">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6022,7 +6059,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="74" spans="1:25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6099,7 +6136,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="75" spans="1:25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6176,7 +6213,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="76" spans="1:25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6253,7 +6290,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6330,7 +6367,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="78" spans="1:25">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6407,7 +6444,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="79" spans="1:25">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6484,7 +6521,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="80" spans="1:25">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6561,7 +6598,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="81" spans="1:25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6638,7 +6675,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="82" spans="1:25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6715,7 +6752,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6792,7 +6829,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="84" spans="1:25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6869,7 +6906,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="85" spans="1:25">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6946,7 +6983,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="86" spans="1:25">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7023,7 +7060,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="87" spans="1:25">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7100,7 +7137,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="88" spans="1:25">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7177,7 +7214,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="89" spans="1:25">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7254,7 +7291,7 @@
         <v>26.4</v>
       </c>
     </row>
-    <row r="90" spans="1:25">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7331,7 +7368,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="91" spans="1:25">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7408,7 +7445,7 @@
         <v>27.7</v>
       </c>
     </row>
-    <row r="92" spans="1:25">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7485,16 +7522,16 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="95" spans="1:25">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
     </row>
-    <row r="105" spans="3:4">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D105" t="s">
         <v>0</v>
       </c>

--- a/Bariants/fipi-04-29/Задание 9/9.xlsx
+++ b/Bariants/fipi-04-29/Задание 9/9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htmlprogrammist/Python/ege/Bariants/fipi-04-29/Задание 9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7CA031-C258-6E4C-AC51-82A837C1157A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11815E5-2ACE-374A-AB81-04DC83BB2811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>MID</t>
+  </si>
+  <si>
+    <t>правильный ответ: 5</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +209,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -411,8 +414,8 @@
   <dimension ref="A1:AB105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC11" sqref="AC11"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,8 +657,8 @@
         <v>15.3</v>
       </c>
       <c r="AA3" s="4">
-        <f>MAX(B2:Y2,B62:Y62)</f>
-        <v>29.3</v>
+        <f>MAX(K2:N62)</f>
+        <v>28.8</v>
       </c>
       <c r="AB3" s="4">
         <f>AVERAGE(B2:Y62)</f>
@@ -817,7 +820,7 @@
       </c>
       <c r="AA5" s="4">
         <f>AA3-AB3</f>
-        <v>8.6794398907103947</v>
+        <v>8.1794398907103947</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -898,6 +901,9 @@
       </c>
       <c r="AA6" s="6">
         <v>8</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">

--- a/Bariants/fipi-04-29/Задание 9/9.xlsx
+++ b/Bariants/fipi-04-29/Задание 9/9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htmlprogrammist/Python/ege/Bariants/fipi-04-29/Задание 9/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F11815E5-2ACE-374A-AB81-04DC83BB2811}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDBFFA4-4C0C-E24B-9210-910FD7EBD447}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="topRight" activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,8 +661,8 @@
         <v>28.8</v>
       </c>
       <c r="AB3" s="4">
-        <f>AVERAGE(B2:Y62)</f>
-        <v>20.620560109289606</v>
+        <f>AVERAGE(K2:N62)</f>
+        <v>23.098360655737697</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -820,7 +820,7 @@
       </c>
       <c r="AA5" s="4">
         <f>AA3-AB3</f>
-        <v>8.1794398907103947</v>
+        <v>5.7016393442623041</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -900,7 +900,7 @@
         <v>14.7</v>
       </c>
       <c r="AA6" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="s">
         <v>3</v>
